--- a/3sem/Econom/1/доходы населения.xlsx
+++ b/3sem/Econom/1/доходы населения.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seron\Desktop\study\3sem\Econom\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53C61C7-652F-4B4C-98FC-6D1243E50D0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C69D8A-26D9-4B74-B8BF-803E729B1DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Доходы" sheetId="1" r:id="rId1"/>
@@ -855,6 +855,1118 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Доходы!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Российская Федерация </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Доходы!$B$4:$AO$5</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="36"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>I квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>II квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>III квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>IV квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2013 год</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>I квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>II квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>III квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>IV квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2014 год</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>I квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>II квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>III квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>IV квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2015 год</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>I квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>II квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>III квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>IV квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2016 год</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>I квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>II квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>III квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>IV квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2017 год</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>I квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>II квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>III квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>IV квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2018 год</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>I квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>II квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>III квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>IV квартал</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2019 год</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>I квартал</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2013 год</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2014 год</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2015 год</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2016 год</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2017 год</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2018 год</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2019 год*</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2020 год*</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Доходы!$B$6:$AO$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>21800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24990</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25529</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30533</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25684.374666428863</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22457</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27059</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27965</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32285</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27412.351691179705</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25364</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29723</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29946</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30254.437853214837</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26646</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30234</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30540</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36150</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30864.962055116757</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27763</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31307</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31325</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37225</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31896.512358648743</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28937</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32371</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32512</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38848</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33178</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30242</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34513</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35115</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41111</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35249</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31647</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74C8-401E-B736-07BA0EFCF55D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1996494127"/>
+        <c:axId val="33629855"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1996494127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="33629855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="33629855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1996494127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0D404CC-CAB6-4D8C-AC4E-B3114418530D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -1178,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13724,6 +14836,7 @@
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13731,8 +14844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="Z51" sqref="Z51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
